--- a/MVP.Generate.Excel/Template/Processing_Fee_Tracking.xlsx
+++ b/MVP.Generate.Excel/Template/Processing_Fee_Tracking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\MVP.Generate.Excel\MVP.Generate.Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\mvp_report\MVP.Generate.Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C9B65C-6049-421F-9C96-1F69E3796CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processing Fee Tracking" sheetId="1" r:id="rId1"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -264,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,10 +295,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,25 +578,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -600,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
@@ -679,8 +683,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
